--- a/exports/L148-tok.xml-result-csv.xlsx
+++ b/exports/L148-tok.xml-result-csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackbowers/Box Sync/Language_Data/Mixtepec_Mixtec/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADBB7CE-5C69-244D-9A71-5B039135ACC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C0B25-BE1E-2748-8D7C-49D5B97FBA09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{5FEB16BA-4438-B542-AD1C-18176D2F5F2E}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{5FEB16BA-4438-B542-AD1C-18176D2F5F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="383">
   <si>
     <t>Orth</t>
   </si>
@@ -774,9 +774,6 @@
     <t>naa</t>
   </si>
   <si>
-    <t>is this the "end" of the story or the "end/destruction" of the tree?</t>
-  </si>
-  <si>
     <t>ends</t>
   </si>
   <si>
@@ -1195,13 +1192,71 @@
   </si>
   <si>
     <t>is the "-ka-" a realis aspect marker to mark they suceeded!?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ika kuu nuu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>naa tu'un</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tuyuku ka'nu ntsikaa ñuu Xnuviko .</t>
+    </r>
+  </si>
+  <si>
+    <t>CONFIRMED JS</t>
+  </si>
+  <si>
+    <r>
+      <t>Satutu ka na kue nivi , nivi kua'a takua nchinchee ta'an na nuu cha'ncha sava ka ,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> vatu ni</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nikunchee na ntsa'ncha na yutu , tuyuku ka .</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"vatu ni" goes with "kunchee" (JS) translated correctly </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1240,6 +1295,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1270,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,6 +1376,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1635,25 +1700,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519001A3-DA3E-A44E-A439-B76E4D1FC3C5}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167:XFD175"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" hidden="1" customWidth="1"/>
     <col min="3" max="4" width="17.33203125" style="3" customWidth="1"/>
     <col min="5" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="99.6640625" customWidth="1"/>
+    <col min="14" max="15" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="17">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1720,7 +1787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1737,7 +1804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1757,7 +1824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1777,7 +1844,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1797,7 +1864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -1817,7 +1884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
         <v>95</v>
       </c>
@@ -1834,7 +1901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="7" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>103</v>
       </c>
@@ -1856,7 +1923,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
@@ -1873,7 +1940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1893,7 +1960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
         <v>112</v>
       </c>
@@ -1913,7 +1980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
         <v>115</v>
       </c>
@@ -1933,7 +2000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
         <v>115</v>
       </c>
@@ -1953,7 +2020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
         <v>118</v>
       </c>
@@ -1973,7 +2040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="34">
       <c r="A16" s="5" t="s">
         <v>121</v>
       </c>
@@ -1993,7 +2060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="7" customFormat="1">
       <c r="A17" s="6" t="s">
         <v>126</v>
       </c>
@@ -2015,7 +2082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
         <v>126</v>
       </c>
@@ -2035,7 +2102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
         <v>129</v>
       </c>
@@ -2055,7 +2122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -2075,7 +2142,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="10" customFormat="1" ht="51">
       <c r="A21" s="9" t="s">
         <v>140</v>
       </c>
@@ -2099,7 +2166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="5" t="s">
         <v>144</v>
       </c>
@@ -2119,7 +2186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="5" t="s">
         <v>147</v>
       </c>
@@ -2136,7 +2203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="5" t="s">
         <v>151</v>
       </c>
@@ -2156,7 +2223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="5" t="s">
         <v>151</v>
       </c>
@@ -2173,7 +2240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="5" t="s">
         <v>156</v>
       </c>
@@ -2193,7 +2260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
         <v>156</v>
       </c>
@@ -2213,7 +2280,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
         <v>162</v>
       </c>
@@ -2230,7 +2297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="5" t="s">
         <v>162</v>
       </c>
@@ -2247,7 +2314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="5" t="s">
         <v>172</v>
       </c>
@@ -2267,7 +2334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="7" customFormat="1">
       <c r="A31" s="6" t="s">
         <v>175</v>
       </c>
@@ -2292,7 +2359,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="7" customFormat="1">
       <c r="A32" s="6" t="s">
         <v>179</v>
       </c>
@@ -2314,7 +2381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" s="5" t="s">
         <v>179</v>
       </c>
@@ -2334,7 +2401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="5" t="s">
         <v>179</v>
       </c>
@@ -2354,7 +2421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="5" t="s">
         <v>179</v>
       </c>
@@ -2374,7 +2441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="5" t="s">
         <v>179</v>
       </c>
@@ -2394,7 +2461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" s="5" t="s">
         <v>179</v>
       </c>
@@ -2414,7 +2481,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
@@ -2434,7 +2501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -2454,7 +2521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -2471,7 +2538,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="7" customFormat="1">
       <c r="A41" s="6" t="s">
         <v>190</v>
       </c>
@@ -2490,7 +2557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="5" t="s">
         <v>45</v>
       </c>
@@ -2510,7 +2577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -2530,7 +2597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" s="5" t="s">
         <v>194</v>
       </c>
@@ -2550,7 +2617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="5" t="s">
         <v>210</v>
       </c>
@@ -2564,9 +2631,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s">
         <v>84</v>
@@ -2575,15 +2642,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E47" t="s">
         <v>369</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>370</v>
-      </c>
-      <c r="H47" t="s">
-        <v>371</v>
       </c>
       <c r="M47" t="s">
         <v>42</v>
@@ -2595,15 +2662,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
       </c>
       <c r="H48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M48" t="s">
         <v>54</v>
@@ -2615,7 +2682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" s="5" t="s">
         <v>92</v>
       </c>
@@ -2632,7 +2699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" s="5" t="s">
         <v>92</v>
       </c>
@@ -2649,7 +2716,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" s="7" customFormat="1" ht="17">
       <c r="A51" s="6" t="s">
         <v>132</v>
       </c>
@@ -2679,7 +2746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="17">
       <c r="A52" s="5" t="s">
         <v>132</v>
       </c>
@@ -2708,7 +2775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" s="7" customFormat="1">
       <c r="A53" s="6" t="s">
         <v>159</v>
       </c>
@@ -2736,7 +2803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" s="5" t="s">
         <v>159</v>
       </c>
@@ -2744,13 +2811,13 @@
         <v>135</v>
       </c>
       <c r="F54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H54" t="s">
         <v>137</v>
       </c>
       <c r="I54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M54" t="s">
         <v>42</v>
@@ -2762,7 +2829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" s="5" t="s">
         <v>159</v>
       </c>
@@ -2770,13 +2837,13 @@
         <v>135</v>
       </c>
       <c r="F55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H55" t="s">
         <v>137</v>
       </c>
       <c r="I55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M55" t="s">
         <v>42</v>
@@ -2788,7 +2855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" s="5" t="s">
         <v>159</v>
       </c>
@@ -2814,7 +2881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" s="5" t="s">
         <v>237</v>
       </c>
@@ -2828,22 +2895,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="10" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="10" customFormat="1" ht="17">
       <c r="A58" s="9" t="s">
         <v>238</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>239</v>
+        <v>380</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H58" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="M58" s="10" t="s">
-        <v>30</v>
+        <v>379</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>31</v>
@@ -2852,19 +2919,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" s="7" customFormat="1" ht="102">
       <c r="A59" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>65</v>
@@ -2873,12 +2940,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="7" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" s="7" customFormat="1" ht="170">
       <c r="A60" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="7" t="s">
@@ -2897,7 +2964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61" s="5" t="s">
         <v>51</v>
       </c>
@@ -2917,7 +2984,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62" s="5" t="s">
         <v>215</v>
       </c>
@@ -2937,12 +3004,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" s="7" customFormat="1" ht="68">
       <c r="A63" s="6" t="s">
         <v>215</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="7" t="s">
@@ -2961,7 +3028,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" s="7" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>197</v>
       </c>
@@ -2983,7 +3050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65" s="5" t="s">
         <v>197</v>
       </c>
@@ -3003,7 +3070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" s="7" customFormat="1">
       <c r="A66" s="6" t="s">
         <v>166</v>
       </c>
@@ -3025,7 +3092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="A67" s="5" t="s">
         <v>166</v>
       </c>
@@ -3045,7 +3112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68" s="5" t="s">
         <v>218</v>
       </c>
@@ -3065,7 +3132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="A69" s="5" t="s">
         <v>218</v>
       </c>
@@ -3085,26 +3152,26 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" s="7" customFormat="1">
       <c r="A70" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>189</v>
       </c>
       <c r="M70" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="N70" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="N70" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="5" t="s">
         <v>231</v>
       </c>
@@ -3121,7 +3188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" s="7" customFormat="1">
       <c r="A72" s="6" t="s">
         <v>231</v>
       </c>
@@ -3140,7 +3207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" s="7" customFormat="1">
       <c r="A73" s="6" t="s">
         <v>221</v>
       </c>
@@ -3165,7 +3232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="A74" s="5" t="s">
         <v>221</v>
       </c>
@@ -3188,18 +3255,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15">
       <c r="A75" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E75" t="s">
         <v>258</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>259</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>260</v>
-      </c>
-      <c r="I75" t="s">
-        <v>261</v>
       </c>
       <c r="M75" t="s">
         <v>17</v>
@@ -3211,18 +3278,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15">
       <c r="A76" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" t="s">
         <v>258</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>260</v>
-      </c>
-      <c r="I76" t="s">
-        <v>261</v>
       </c>
       <c r="M76" t="s">
         <v>17</v>
@@ -3234,17 +3301,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" s="7" customFormat="1">
       <c r="A77" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>48</v>
@@ -3256,7 +3323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" s="7" customFormat="1">
       <c r="A78" s="6" t="s">
         <v>206</v>
       </c>
@@ -3281,7 +3348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15">
       <c r="A79" s="5" t="s">
         <v>206</v>
       </c>
@@ -3304,15 +3371,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15">
       <c r="A80" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E80" t="s">
         <v>265</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>266</v>
-      </c>
-      <c r="H80" t="s">
-        <v>267</v>
       </c>
       <c r="M80" t="s">
         <v>48</v>
@@ -3324,7 +3391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15">
       <c r="A81" s="5" t="s">
         <v>57</v>
       </c>
@@ -3344,15 +3411,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15">
       <c r="A82" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E82" t="s">
         <v>373</v>
       </c>
-      <c r="E82" t="s">
+      <c r="H82" t="s">
         <v>374</v>
-      </c>
-      <c r="H82" t="s">
-        <v>375</v>
       </c>
       <c r="M82" t="s">
         <v>42</v>
@@ -3364,51 +3431,51 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" s="13" customFormat="1">
       <c r="A83" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="H83" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="M83" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="M83" s="13" t="s">
+      <c r="E84" t="s">
+        <v>271</v>
+      </c>
+      <c r="H84" t="s">
+        <v>272</v>
+      </c>
+      <c r="M84" t="s">
+        <v>255</v>
+      </c>
+      <c r="N84" t="s">
         <v>256</v>
       </c>
-      <c r="N83" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E84" t="s">
-        <v>272</v>
-      </c>
-      <c r="H84" t="s">
-        <v>273</v>
-      </c>
-      <c r="M84" t="s">
-        <v>256</v>
-      </c>
-      <c r="N84" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" t="s">
         <v>246</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>247</v>
-      </c>
-      <c r="H85" t="s">
-        <v>248</v>
       </c>
       <c r="M85" t="s">
         <v>77</v>
@@ -3420,15 +3487,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15">
       <c r="A86" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E86" t="s">
         <v>246</v>
       </c>
-      <c r="E86" t="s">
+      <c r="H86" t="s">
         <v>247</v>
-      </c>
-      <c r="H86" t="s">
-        <v>248</v>
       </c>
       <c r="M86" t="s">
         <v>77</v>
@@ -3440,34 +3507,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E87" t="s">
+        <v>271</v>
+      </c>
+      <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="H87" t="s">
+      <c r="M87" t="s">
+        <v>255</v>
+      </c>
+      <c r="N87" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" s="7" customFormat="1">
+      <c r="A88" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="M87" t="s">
-        <v>256</v>
-      </c>
-      <c r="N87" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M88" s="7" t="s">
         <v>70</v>
@@ -3476,7 +3543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" s="7" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>203</v>
       </c>
@@ -3498,7 +3565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" s="5" t="s">
         <v>203</v>
       </c>
@@ -3518,7 +3585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" s="7" customFormat="1">
       <c r="A91" s="6" t="s">
         <v>169</v>
       </c>
@@ -3534,7 +3601,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92" s="5" t="s">
         <v>169</v>
       </c>
@@ -3548,7 +3615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93" s="5" t="s">
         <v>219</v>
       </c>
@@ -3568,7 +3635,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="A94" s="5" t="s">
         <v>219</v>
       </c>
@@ -3585,7 +3652,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95" s="5" t="s">
         <v>219</v>
       </c>
@@ -3605,7 +3672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15">
       <c r="A96" s="5" t="s">
         <v>219</v>
       </c>
@@ -3622,17 +3689,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" s="7" customFormat="1">
       <c r="A97" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H97" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M97" s="7" t="s">
         <v>42</v>
@@ -3644,17 +3711,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" s="7" customFormat="1">
       <c r="A98" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H98" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M98" s="7" t="s">
         <v>21</v>
@@ -3663,21 +3730,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F99" t="s">
+        <v>279</v>
+      </c>
+      <c r="H99" t="s">
+        <v>278</v>
+      </c>
+      <c r="I99" t="s">
         <v>280</v>
-      </c>
-      <c r="H99" t="s">
-        <v>279</v>
-      </c>
-      <c r="I99" t="s">
-        <v>281</v>
       </c>
       <c r="M99" t="s">
         <v>30</v>
@@ -3689,15 +3756,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
+        <v>279</v>
+      </c>
+      <c r="H100" t="s">
         <v>280</v>
-      </c>
-      <c r="H100" t="s">
-        <v>281</v>
       </c>
       <c r="M100" t="s">
         <v>36</v>
@@ -3709,9 +3776,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" s="10" customFormat="1">
       <c r="A101" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -3725,9 +3792,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E102" t="s">
         <v>61</v>
@@ -3739,17 +3806,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" s="7" customFormat="1">
       <c r="A103" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H103" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M103" s="7" t="s">
         <v>17</v>
@@ -3761,15 +3828,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E104" t="s">
         <v>284</v>
       </c>
-      <c r="E104" t="s">
+      <c r="H104" t="s">
         <v>285</v>
-      </c>
-      <c r="H104" t="s">
-        <v>286</v>
       </c>
       <c r="M104" t="s">
         <v>17</v>
@@ -3781,17 +3848,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" s="7" customFormat="1">
       <c r="A105" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H105" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M105" s="7" t="s">
         <v>98</v>
@@ -3803,17 +3870,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" s="7" customFormat="1">
       <c r="A106" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H106" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M106" s="7" t="s">
         <v>36</v>
@@ -3825,15 +3892,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E107" t="s">
         <v>293</v>
       </c>
-      <c r="E107" t="s">
+      <c r="H107" t="s">
         <v>294</v>
-      </c>
-      <c r="H107" t="s">
-        <v>295</v>
       </c>
       <c r="M107" t="s">
         <v>48</v>
@@ -3845,15 +3912,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E108" t="s">
         <v>293</v>
       </c>
-      <c r="E108" t="s">
+      <c r="H108" t="s">
         <v>294</v>
-      </c>
-      <c r="H108" t="s">
-        <v>295</v>
       </c>
       <c r="M108" t="s">
         <v>48</v>
@@ -3865,9 +3932,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" s="7" customFormat="1">
       <c r="A109" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -3875,7 +3942,7 @@
         <v>63</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M109" s="7" t="s">
         <v>21</v>
@@ -3884,15 +3951,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="A110" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E110" t="s">
         <v>63</v>
       </c>
       <c r="H110" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M110" t="s">
         <v>77</v>
@@ -3904,17 +3971,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" s="7" customFormat="1">
       <c r="A111" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H111" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M111" s="7" t="s">
         <v>84</v>
@@ -3923,17 +3990,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" s="7" customFormat="1">
       <c r="A112" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H112" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M112" s="7" t="s">
         <v>17</v>
@@ -3945,17 +4012,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" s="7" customFormat="1">
       <c r="A113" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H113" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M113" s="7" t="s">
         <v>21</v>
@@ -3964,16 +4031,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:15" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" s="7" customFormat="1" ht="51">
       <c r="A114" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M114" s="7" t="s">
         <v>65</v>
@@ -3982,15 +4049,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15">
       <c r="A115" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E115" t="s">
         <v>376</v>
       </c>
-      <c r="E115" t="s">
+      <c r="H115" t="s">
         <v>377</v>
-      </c>
-      <c r="H115" t="s">
-        <v>378</v>
       </c>
       <c r="M115" t="s">
         <v>60</v>
@@ -4002,7 +4069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15">
       <c r="A116" s="5" t="s">
         <v>225</v>
       </c>
@@ -4022,7 +4089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15">
       <c r="A117" s="5" t="s">
         <v>225</v>
       </c>
@@ -4042,7 +4109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15">
       <c r="A118" s="5" t="s">
         <v>62</v>
       </c>
@@ -4059,15 +4126,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15">
       <c r="A119" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E119" t="s">
         <v>311</v>
       </c>
-      <c r="E119" t="s">
+      <c r="H119" t="s">
         <v>312</v>
-      </c>
-      <c r="H119" t="s">
-        <v>313</v>
       </c>
       <c r="M119" t="s">
         <v>17</v>
@@ -4079,15 +4146,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15">
       <c r="A120" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E120" t="s">
         <v>68</v>
       </c>
       <c r="H120" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M120" t="s">
         <v>65</v>
@@ -4096,7 +4163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15">
       <c r="A121" s="5" t="s">
         <v>67</v>
       </c>
@@ -4113,7 +4180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" s="7" customFormat="1">
       <c r="A122" s="6" t="s">
         <v>200</v>
       </c>
@@ -4135,7 +4202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15">
       <c r="A123" s="5" t="s">
         <v>200</v>
       </c>
@@ -4155,7 +4222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15">
       <c r="A124" s="5" t="s">
         <v>72</v>
       </c>
@@ -4184,7 +4251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15">
       <c r="A125" s="5" t="s">
         <v>72</v>
       </c>
@@ -4192,16 +4259,16 @@
         <v>73</v>
       </c>
       <c r="H125" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M125" t="s">
+        <v>255</v>
+      </c>
+      <c r="N125" t="s">
         <v>256</v>
       </c>
-      <c r="N125" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:15" s="7" customFormat="1">
       <c r="A126" s="6" t="s">
         <v>123</v>
       </c>
@@ -4223,7 +4290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15">
       <c r="A127" s="5" t="s">
         <v>123</v>
       </c>
@@ -4243,7 +4310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15">
       <c r="A128" s="5" t="s">
         <v>123</v>
       </c>
@@ -4263,7 +4330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15">
       <c r="A129" s="5" t="s">
         <v>123</v>
       </c>
@@ -4283,7 +4350,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15">
       <c r="A130" s="5" t="s">
         <v>123</v>
       </c>
@@ -4303,18 +4370,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15">
       <c r="A131" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E131" t="s">
         <v>323</v>
-      </c>
-      <c r="E131" t="s">
-        <v>324</v>
       </c>
       <c r="F131" t="s">
         <v>229</v>
       </c>
       <c r="H131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I131" t="s">
         <v>230</v>
@@ -4326,7 +4393,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15">
       <c r="A132" s="5" t="s">
         <v>228</v>
       </c>
@@ -4343,15 +4410,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15">
       <c r="A133" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E133" t="s">
         <v>326</v>
       </c>
-      <c r="E133" t="s">
+      <c r="H133" t="s">
         <v>327</v>
-      </c>
-      <c r="H133" t="s">
-        <v>328</v>
       </c>
       <c r="M133" t="s">
         <v>65</v>
@@ -4360,7 +4427,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" s="7" customFormat="1">
       <c r="A134" s="6" t="s">
         <v>80</v>
       </c>
@@ -4382,15 +4449,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15">
       <c r="A135" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E135" t="s">
         <v>329</v>
       </c>
-      <c r="E135" t="s">
+      <c r="H135" t="s">
         <v>330</v>
-      </c>
-      <c r="H135" t="s">
-        <v>331</v>
       </c>
       <c r="M135" t="s">
         <v>48</v>
@@ -4402,15 +4469,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15">
       <c r="A136" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E136" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H136" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M136" t="s">
         <v>48</v>
@@ -4422,15 +4489,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15">
       <c r="A137" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E137" t="s">
+        <v>331</v>
+      </c>
+      <c r="H137" t="s">
         <v>332</v>
-      </c>
-      <c r="H137" t="s">
-        <v>333</v>
       </c>
       <c r="M137" t="s">
         <v>48</v>
@@ -4442,7 +4509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" s="16" customFormat="1">
       <c r="A138" s="15" t="s">
         <v>83</v>
       </c>
@@ -4461,7 +4528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15">
       <c r="A139" s="5" t="s">
         <v>83</v>
       </c>
@@ -4472,9 +4539,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15">
       <c r="A140" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E140" t="s">
         <v>61</v>
@@ -4486,18 +4553,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15">
       <c r="A141" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E141" t="s">
         <v>317</v>
       </c>
-      <c r="E141" t="s">
+      <c r="H141" t="s">
         <v>318</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>319</v>
-      </c>
-      <c r="I141" t="s">
-        <v>320</v>
       </c>
       <c r="M141" t="s">
         <v>21</v>
@@ -4506,18 +4573,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15">
       <c r="A142" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E142" t="s">
         <v>317</v>
       </c>
-      <c r="E142" t="s">
+      <c r="H142" t="s">
         <v>318</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>319</v>
-      </c>
-      <c r="I142" t="s">
-        <v>320</v>
       </c>
       <c r="M142" t="s">
         <v>21</v>
@@ -4526,7 +4593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" s="7" customFormat="1">
       <c r="A143" s="6" t="s">
         <v>234</v>
       </c>
@@ -4548,7 +4615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15">
       <c r="A144" s="5" t="s">
         <v>234</v>
       </c>
@@ -4568,32 +4635,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15">
       <c r="A145" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E145" t="s">
         <v>335</v>
       </c>
-      <c r="E145" t="s">
+      <c r="H145" t="s">
         <v>336</v>
       </c>
-      <c r="H145" t="s">
+      <c r="M145" t="s">
+        <v>255</v>
+      </c>
+      <c r="N145" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M145" t="s">
-        <v>256</v>
-      </c>
-      <c r="N145" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
+      <c r="E146" t="s">
         <v>338</v>
       </c>
-      <c r="E146" t="s">
+      <c r="H146" t="s">
         <v>339</v>
-      </c>
-      <c r="H146" t="s">
-        <v>340</v>
       </c>
       <c r="M146" t="s">
         <v>42</v>
@@ -4605,15 +4672,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15">
       <c r="A147" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E147" t="s">
+        <v>340</v>
+      </c>
+      <c r="H147" t="s">
         <v>341</v>
-      </c>
-      <c r="H147" t="s">
-        <v>342</v>
       </c>
       <c r="M147" t="s">
         <v>54</v>
@@ -4625,21 +4692,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15">
       <c r="A148" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E148" t="s">
         <v>343</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
+        <v>338</v>
+      </c>
+      <c r="H148" t="s">
         <v>344</v>
       </c>
-      <c r="F148" t="s">
+      <c r="I148" t="s">
         <v>339</v>
-      </c>
-      <c r="H148" t="s">
-        <v>345</v>
-      </c>
-      <c r="I148" t="s">
-        <v>340</v>
       </c>
       <c r="M148" t="s">
         <v>36</v>
@@ -4651,21 +4718,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15">
       <c r="A149" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E149" t="s">
         <v>343</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
+        <v>366</v>
+      </c>
+      <c r="H149" t="s">
         <v>344</v>
       </c>
-      <c r="F149" t="s">
+      <c r="I149" t="s">
         <v>367</v>
-      </c>
-      <c r="H149" t="s">
-        <v>345</v>
-      </c>
-      <c r="I149" t="s">
-        <v>368</v>
       </c>
       <c r="M149" t="s">
         <v>36</v>
@@ -4677,15 +4744,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15">
       <c r="A150" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E150" t="s">
         <v>346</v>
       </c>
-      <c r="E150" t="s">
+      <c r="H150" t="s">
         <v>347</v>
-      </c>
-      <c r="H150" t="s">
-        <v>348</v>
       </c>
       <c r="M150" t="s">
         <v>42</v>
@@ -4697,17 +4764,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" s="7" customFormat="1">
       <c r="A151" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H151" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M151" s="7" t="s">
         <v>77</v>
@@ -4719,15 +4786,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15">
       <c r="A152" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M152" t="s">
         <v>65</v>
@@ -4736,32 +4803,32 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15">
       <c r="A153" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E153" t="s">
+        <v>350</v>
+      </c>
+      <c r="H153" t="s">
         <v>351</v>
       </c>
-      <c r="H153" t="s">
+      <c r="M153" t="s">
+        <v>255</v>
+      </c>
+      <c r="N153" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E154" t="s">
         <v>352</v>
       </c>
-      <c r="M153" t="s">
-        <v>256</v>
-      </c>
-      <c r="N153" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A154" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E154" t="s">
-        <v>353</v>
-      </c>
       <c r="H154" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M154" t="s">
         <v>30</v>
@@ -4773,53 +4840,53 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15">
       <c r="A155" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E155" t="s">
         <v>354</v>
       </c>
-      <c r="E155" t="s">
+      <c r="H155" t="s">
         <v>355</v>
       </c>
-      <c r="H155" t="s">
-        <v>356</v>
-      </c>
       <c r="M155" t="s">
+        <v>255</v>
+      </c>
+      <c r="N155" t="s">
         <v>256</v>
       </c>
-      <c r="N155" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" s="10" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:15" s="10" customFormat="1" ht="51">
       <c r="A156" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H156" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="M156" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N156" s="10" t="s">
+      <c r="M156" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="N156" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="85">
       <c r="A157" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="E157" t="s">
         <v>250</v>
-      </c>
-      <c r="E157" t="s">
-        <v>251</v>
       </c>
       <c r="H157" t="s">
         <v>187</v>
@@ -4831,15 +4898,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15">
       <c r="A158" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E158" t="s">
         <v>357</v>
       </c>
-      <c r="E158" t="s">
+      <c r="H158" t="s">
         <v>358</v>
-      </c>
-      <c r="H158" t="s">
-        <v>359</v>
       </c>
       <c r="M158" t="s">
         <v>17</v>
@@ -4851,17 +4918,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" s="10" customFormat="1">
       <c r="A159" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
       <c r="E159" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H159" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="H159" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="M159" s="10" t="s">
         <v>60</v>
@@ -4873,15 +4940,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15">
       <c r="A160" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E160" t="s">
         <v>314</v>
       </c>
-      <c r="E160" t="s">
+      <c r="H160" t="s">
         <v>315</v>
-      </c>
-      <c r="H160" t="s">
-        <v>316</v>
       </c>
       <c r="M160" t="s">
         <v>60</v>
@@ -4893,7 +4960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15">
       <c r="A161" s="5" t="s">
         <v>88</v>
       </c>
@@ -4913,15 +4980,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15">
       <c r="A162" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E162" t="s">
         <v>360</v>
       </c>
-      <c r="E162" t="s">
+      <c r="H162" t="s">
         <v>361</v>
-      </c>
-      <c r="H162" t="s">
-        <v>362</v>
       </c>
       <c r="M162" t="s">
         <v>17</v>
@@ -4933,15 +5000,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15">
       <c r="A163" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E163" t="s">
         <v>363</v>
       </c>
-      <c r="E163" t="s">
+      <c r="H163" t="s">
         <v>364</v>
-      </c>
-      <c r="H163" t="s">
-        <v>365</v>
       </c>
       <c r="M163" t="s">
         <v>42</v>
@@ -4953,7 +5020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:15" s="10" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" s="10" customFormat="1" ht="51">
       <c r="A164" s="9" t="s">
         <v>86</v>
       </c>
@@ -4974,21 +5041,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15">
       <c r="A165" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E165" t="s">
         <v>366</v>
       </c>
-      <c r="E165" t="s">
+      <c r="H165" t="s">
         <v>367</v>
-      </c>
-      <c r="H165" t="s">
-        <v>368</v>
       </c>
       <c r="M165" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15">
       <c r="M166" t="s">
         <v>84</v>
       </c>
@@ -4996,7 +5063,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15">
       <c r="M167" t="s">
         <v>84</v>
       </c>
@@ -5004,7 +5071,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15">
       <c r="E168" t="s">
         <v>116</v>
       </c>
@@ -5015,7 +5082,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15">
       <c r="E169" t="s">
         <v>138</v>
       </c>
@@ -5029,7 +5096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15">
       <c r="E170" t="s">
         <v>116</v>
       </c>
@@ -5040,7 +5107,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15">
       <c r="E171" t="s">
         <v>149</v>
       </c>
@@ -5057,7 +5124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15">
       <c r="E172" t="s">
         <v>213</v>
       </c>
@@ -5074,7 +5141,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15">
       <c r="E173" t="s">
         <v>149</v>
       </c>
@@ -5091,7 +5158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15">
       <c r="E174" t="s">
         <v>138</v>
       </c>
@@ -5105,7 +5172,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15">
       <c r="E175" t="s">
         <v>213</v>
       </c>
